--- a/results/prelimDead2.xlsx
+++ b/results/prelimDead2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\covid-19-prediction\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D5CED5-8D07-4E76-9F98-A3DA62DFC49D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8AC236-83ED-4D6F-B7C6-5E9E7DF82ABB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="3100" windowWidth="22050" windowHeight="15320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1680" yWindow="2980" windowWidth="22050" windowHeight="15320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>Country</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>LSTM Weibull</t>
+  </si>
+  <si>
+    <t>LSTM</t>
   </si>
 </sst>
 </file>
@@ -463,7 +466,7 @@
   <dimension ref="B1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:Q7"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -528,7 +531,7 @@
         <v>10</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>13</v>
@@ -543,7 +546,7 @@
         <v>10</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.35">

--- a/results/prelimDead2.xlsx
+++ b/results/prelimDead2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\covid-19-prediction\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8AC236-83ED-4D6F-B7C6-5E9E7DF82ABB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E328F3D-F28D-4276-BCFC-3D56FAA4C946}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="2980" windowWidth="22050" windowHeight="15320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11610" yWindow="1940" windowWidth="22050" windowHeight="15320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>Country</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>Gaussian</t>
-  </si>
-  <si>
-    <t>Beta 4</t>
   </si>
   <si>
     <t>ARIMA Weibull</t>
@@ -465,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -504,10 +501,10 @@
     <row r="2" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B2" s="10"/>
       <c r="C2" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -516,13 +513,13 @@
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>9</v>
@@ -531,13 +528,13 @@
         <v>10</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>9</v>
@@ -546,7 +543,7 @@
         <v>10</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.35">
